--- a/Dataset/Folds/Fold_2/Excel/48.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/48.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5313" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6009" uniqueCount="905">
   <si>
     <t>Doi</t>
   </si>
@@ -2888,6 +2888,306 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,                            Graeme%MacLaren%NULL%1,                            Philip S%Boonstra%NULL%1,                            Theodore J%Iwashyna%NULL%1,                            Arthur S%Slutsky%NULL%1,                            Eddy%Fan%NULL%1,                            Robert H%Bartlett%NULL%1,                            Joseph E%Tonna%NULL%1,                            Robert%Hyslop%NULL%1,                            Jeffrey J%Fanning%NULL%1,                            Peter T%Rycus%NULL%1,                            Steve J%Hyer%NULL%1,                            Marc M%Anders%NULL%1,                            Cara L%Agerstrand%NULL%1,                            Katarzyna%Hryniewicz%NULL%1,                            Rodrigo%Diaz%NULL%1,                            Roberto%Lorusso%NULL%1,                            Alain%Combes%NULL%1,                            Daniel%Brodie%NULL%4,                            Peta%Alexander%NULL%1,                            Nicholas%Barrett%NULL%1,                            Jan%Bělohlávek%NULL%1,                            Dale%Fisher%NULL%1,                            John%Fraser%NULL%1,                            Ali Ait%Hssain%NULL%1,                            Jae Sung%Jung%NULL%1,                            Michael%McMullan%NULL%1,                            Yatin%Mehta%NULL%1,                            Mark T.%Ogino%NULL%1,                            Matthew L.%Paden%NULL%1,                            Kiran%Shekar%NULL%1,                            Christine%Stead%NULL%1,                            Yasir%Abu-Omar%NULL%1,                            Vanni%Agnoletti%NULL%1,                            Anzila%Akbar%NULL%1,                            Huda%Alfoudri%NULL%1,                            Carlos%Alviar%NULL%1,                            Vladimir%Aronsky%NULL%1,                            Erin%August%NULL%1,                            Georg%Auzinger%NULL%1,                            Hilda%Aveja%NULL%1,                            Rhonda%Bakken%NULL%1,                            Joan%Balcells%NULL%1,                            Sripal%Bangalore%NULL%1,                            Bernard W.%Barnes%NULL%1,                            Alaiza%Bautista%NULL%1,                            Lorraine L.%Bellows%NULL%1,                            Felipe%Beltran%NULL%1,                            Peyman%Benharash%NULL%1,                            Marco%Benni%NULL%1,                            Jennifer%Berg%NULL%1,                            Pietro%Bertini%NULL%1,                            Pablo%Blanco-Schweizer%NULL%1,                            Melissa%Brunsvold%NULL%1,                            Jenny%Budd%NULL%1,                            Debra%Camp%NULL%1,                            Mark%Caridi-Scheible%NULL%0,                            Edmund%Carton%NULL%1,                            Elena%Casanova-Ghosh%NULL%1,                            Anthony%Castleberry%NULL%1,                            Christopher T.%Chipongian%NULL%1,                            Chang Woo%Choi%NULL%1,                            Alessandro%Circelli%NULL%1,                            Elliott%Cohen%NULL%1,                            Michael%Collins%NULL%1,                            Scott%Copus%NULL%1,                            Jill%Coy%NULL%1,                            Brandon%Crist%NULL%1,                            Leonora%Cruz%NULL%1,                            Mirosław%Czuczwar%NULL%1,                            Mani%Daneshmand%NULL%1,                            Daniel%Davis II%NULL%1,                            Kim%De la Cruz%NULL%1,                            Cyndie%Devers%NULL%1,                            Toni%Duculan%NULL%1,                            Lucian%Durham%NULL%1,                            Subbarao%Elapavaluru%NULL%1,                            Carlos V.%Elzo Kraemer%NULL%1,                            EDMÍLSON CARDOSO%Filho%NULL%1,                            Jillian%Fitzgerald%NULL%1,                            Giuseppe%Foti%NULL%1,                            Matthew%Fox%NULL%1,                            David%Fritschen%NULL%1,                            David%Fullerton%NULL%1,                            Elton%Gelandt%NULL%1,                            Stacy%Gerle%NULL%1,                            Marco%Giani%NULL%1,                            Si Guim%Goh%NULL%1,                            Sara%Govener%NULL%1,                            Julie%Grone%NULL%1,                            Miles%Guber%NULL%1,                            Vadim%Gudzenko%NULL%1,                            Daniel%Gutteridge%NULL%1,                            Jennifer%Guy%NULL%1,                            Jonathan%Haft%NULL%1,                            Cameron%Hall%NULL%1,                            Ibrahim Fawzy%Hassan%NULL%1,                            Rubén%Herrán%NULL%1,                            Hitoshi%Hirose%NULL%1,                            Abdulsalam Saif%Ibrahim%NULL%1,                            Don%Igielski%NULL%1,                            Felicia A.%Ivascu%NULL%1,                            Jaume%Izquierdo Blasco%NULL%1,                            Julie%Jackson%NULL%1,                            Harsh%Jain%NULL%1,                            Bhavini%Jaiswal%NULL%1,                            Andrea C.%Johnson%NULL%1,                            Jenniver A.%Jurynec%NULL%1,                            Norma M%Kellter%NULL%1,                            Adam%Kohl%NULL%1,                            Zachary%Kon%NULL%1,                            Markus%Kredel%NULL%1,                            Karen%Kriska%NULL%1,                            Chandra%Kunavarapu%NULL%1,                            Oude%Lansink-Hartgring%NULL%1,                            Jeliene%LaRocque%NULL%1,                            Sharon Beth%Larson%NULL%1,                            Tracie%Layne%NULL%1,                            Stephane%Ledot%NULL%1,                            Napolitan%Lena%NULL%1,                            Jonathan%Lillie%NULL%1,                            Gösta%Lotz%NULL%1,                            Mark%Lucas%NULL%1,                            Lee%Ludwigson%NULL%1,                            Jacinta J.%Maas%NULL%1,                            Joanna%Maertens%NULL%1,                            David%Mast%NULL%1,                            Scott%McCardle%NULL%1,                            Bernard%McDonald%NULL%1,                            Allison%McLarty%NULL%1,                            Chelsea%McMahon%NULL%1,                            Patrick%Meybohm%NULL%1,                            Bart%Meyns%NULL%1,                            Casey%Miller%NULL%1,                            Fernando%Moraes Neto%NULL%1,                            Kelly%Morris%NULL%1,                            Ralf%Muellenbach%NULL%1,                            Meghan%Nicholson%NULL%1,                            Serena%O'Brien%NULL%1,                            Kathryn%O'Keefe%NULL%1,                            Tawnya%Ogston%NULL%1,                            Gary%Oldenburg%NULL%1,                            Fabiana M.%Oliveira%NULL%1,                            Emily%Oppel%NULL%1,                            Diego%Pardo%NULL%2,                            Diego%Pardo%NULL%0,                            Sara J.%Parker%NULL%1,                            Finn M.%Pedersen%NULL%1,                            Crescens%Pellecchia%NULL%1,                            Jose A.S.%Pelligrini%NULL%1,                            Thao T.N.%Pham%NULL%1,                            Ann R.%Phillips%NULL%1,                            Tasneem%Pirani%NULL%1,                            Paweł%Piwowarczyk%NULL%1,                            Robert%Plambeck%NULL%1,                            William%Pruett%NULL%1,                            Brittany%Quandt%NULL%1,                            Kollengode%Ramanathan%NULL%1,                            Alejandro%Rey%NULL%1,                            Christian%Reyher%NULL%1,                            Jordi%Riera del Brio%NULL%1,                            Rachel%Roberts%NULL%1,                            David%Roe%NULL%1,                            Peter P.%Roeleveld%NULL%1,                            Janet%Rudy%NULL%1,                            Luis F.%Rueda%NULL%1,                            Emanuele%Russo%NULL%1,                            Jesús%Sánchez Ballesteros%NULL%1,                            Nancy%Satou%NULL%1,                            Mauricio Guidi%Saueressig%NULL%1,                            Paul C.%Saunders%NULL%1,                            Margaret%Schlotterbeck%NULL%1,                            Patricia%Schwarz%NULL%1,                            Nicole%Scriven%NULL%1,                            Alexis%Serra%NULL%1,                            Mohammad%Shamsah%NULL%1,                            Lucy%Sim%NULL%1,                            Alexandra%Smart%NULL%1,                            Adam%Smith%NULL%1,                            Deane%Smith%NULL%1,                            Maggie%Smith%NULL%1,                            Neel%Sodha%NULL%1,                            Michael%Sonntagbauer%NULL%1,                            Marc%Sorenson%NULL%1,                            Eric B%Stallkamp%NULL%1,                            Allison%Stewart%NULL%1,                            Kathy%Swartz%NULL%1,                            Koji%Takeda%NULL%1,                            Shaun%Thompson%NULL%1,                            Bridget%Toy%NULL%1,                            Divina%Tuazon%NULL%1,                            Makoto%Uchiyama%NULL%1,                            Obiora I.%Udeozo%NULL%1,                            Scott%van Poppel%NULL%1,                            Corey%Ventetuolo%NULL%1,                            Leen%Vercaemst%NULL%1,                            Nguyen V.%Vinh Chau%NULL%1,                            I-Wen%Wang%NULL%1,                            Carrie%Williamson%NULL%1,                            Brock%Wilson%NULL%1,                            Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                             Dhaval%Kolte%NULL%1,                             Mary E.%Cadigan%NULL%1,                             Elizabeth%Laikhter%NULL%1,                             Kevin%Sinclair%NULL%1,                             Eugene%Pomerantsev%NULL%1,                             Michael A.%Fifer%NULL%1,                             Thoralf M.%Sundt%NULL%1,                             Robert W.%Yeh%NULL%1,                             Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                             Yeming%Wang%NULL%0,                             Xingwang%Li%NULL%0,                             Lili%Ren%NULL%0,                             Jianping%Zhao%NULL%0,                             Yi%Hu%NULL%0,                             Li%Zhang%NULL%0,                             Guohui%Fan%NULL%0,                             Jiuyang%Xu%NULL%0,                             Xiaoying%Gu%NULL%0,                             Zhenshun%Cheng%NULL%0,                             Ting%Yu%NULL%0,                             Jiaan%Xia%NULL%0,                             Yuan%Wei%NULL%0,                             Wenjuan%Wu%NULL%0,                             Xuelei%Xie%NULL%0,                             Wen%Yin%NULL%0,                             Hui%Li%NULL%0,                             Min%Liu%NULL%0,                             Yan%Xiao%NULL%0,                             Hong%Gao%NULL%0,                             Li%Guo%NULL%0,                             Jungang%Xie%NULL%0,                             Guangfa%Wang%NULL%0,                             Rongmeng%Jiang%NULL%0,                             Zhancheng%Gao%NULL%0,                             Qi%Jin%NULL%0,                             Jianwei%Wang%wangjw28@163.com%0,                             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                             Yi%Xiang%NULL%0,                             Wei%Fang%NULL%0,                             Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                             Boqun%Li%279685211@qq.com%0,                             Boqun%Li%279685211@qq.com%0,                             Yanjun%Hu%huyanjun@163.com%0,                             Chunhui%Lang%NULL%0,                             Daoqiu%Huang%NULL%0,                             Qiuyan%Sun%NULL%0,                             Yan%Xiong%NULL%0,                             Xia%Huang%NULL%0,                             Jinglong%Lv%NULL%0,                             Yaling%Luo%NULL%0,                             Li%Shen%NULL%0,                             Haoran%Yang%NULL%0,                             Gu%Huang%NULL%0,                             Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                             Mark%Caridi-Scheible%NULL%3,                             James M.%Blum%NULL%2,                             Chad%Robichaux%NULL%2,                             Colleen%Kraft%NULL%2,                             Jesse T.%Jacob%NULL%2,                             Craig S.%Jabaley%NULL%2,                             David%Carpenter%NULL%2,                             Roberta%Kaplow%NULL%2,                             Alfonso C.%Hernandez-Romieu%NULL%2,                             Max W.%Adelman%NULL%2,                             Greg S.%Martin%NULL%2,                             Craig M.%Coopersmith%NULL%2,                             David J.%Murphy%NULL%2,                             NULL%NULL%NULL%0,                              S.%Auld%null%1,                              M.% Caridi-Scheible%null%1,                              J. M.% Blum%null%1,                              C. J.% Robichaux%null%1,                              C. S.% Kraft%null%1,                              J. T.% Jacob%null%1,                              C. S.% Jabaley%null%1,                              D.% Carpenter%null%1,                              R.% Kaplow%null%1,                              A. C.% Hernandez%null%1,                              M. W.% Adelman%null%1,                              G. S.% Martin%null%1,                              C. M.% Coopersmith%null%1,                              D. J.% Murphy%null%1,                                % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                            S.%Auld%null%1,                            M.% Caridi-Scheible%null%1,                            J. M.% Blum%null%1,                            C. J.% Robichaux%null%1,                            C. S.% Kraft%null%1,                            J. T.% Jacob%null%1,                            C. S.% Jabaley%null%1,                            D.% Carpenter%null%1,                            R.% Kaplow%null%1,                            A. C.% Hernandez%null%1,                            M. W.% Adelman%null%1,                            G. S.% Martin%null%1,                            C. M.% Coopersmith%null%1,                            D. J.% Murphy%null%1,                              % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,          S.%Auld%null%1,          M.% Caridi-Scheible%null%1,          J. M.% Blum%null%1,          C. J.% Robichaux%null%1,          C. S.% Kraft%null%1,          J. T.% Jacob%null%1,          C. S.% Jabaley%null%1,          D.% Carpenter%null%1,          R.% Kaplow%null%1,          A. C.% Hernandez%null%1,          M. W.% Adelman%null%1,          G. S.% Martin%null%1,          C. M.% Coopersmith%null%1,          D. J.% Murphy%null%1,            % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                             Bijan J.%Ghassemieh%NULL%2,                             Michelle%Nichols%NULL%2,                             Richard%Kim%NULL%2,                             Keith R.%Jerome%NULL%2,                             Arun K.%Nalla%NULL%2,                             Alexander L.%Greninger%NULL%2,                             Sudhakar%Pipavath%NULL%2,                             Mark M.%Wurfel%NULL%2,                             Laura%Evans%NULL%2,                             Patricia A.%Kritek%NULL%2,                             T. Eoin%West%NULL%2,                             Andrew%Luks%NULL%2,                             Anthony%Gerbino%NULL%2,                             Chris R.%Dale%NULL%2,                             Jason D.%Goldman%NULL%2,                             Shane%O’Mahony%NULL%2,                             Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                             Tangkai%Qi%NULL%1,                             Li%Liu%NULL%1,                             Yun%Ling%NULL%0,                             Zhiping%Qian%NULL%1,                             Tao%Li%NULL%0,                             Feng%Li%NULL%1,                             Qingnian%Xu%NULL%1,                             Yuyi%Zhang%NULL%1,                             Shuibao%Xu%NULL%1,                             Zhigang%Song%NULL%1,                             Yigang%Zeng%NULL%1,                             Yinzhong%Shen%NULL%1,                             Yuxin%Shi%NULL%2,                             Tongyu%Zhu%NULL%2,                             Hongzhou%Lu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                             Min%Zhou%NULL%0,                             Xuan%Dong%NULL%0,                             Jieming%Qu%NULL%0,                             Fengyun%Gong%NULL%0,                             Yang%Han%NULL%0,                             Yang%Qiu%NULL%0,                             Jingli%Wang%NULL%0,                             Ying%Liu%NULL%0,                             Yuan%Wei%NULL%0,                             Jia'an%Xia%NULL%0,                             Ting%Yu%NULL%0,                             Xinxin%Zhang%NULL%0,                             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Wen-hua%Liang%NULL%0,                             Chun-quan%Ou%NULL%0,                             Jian-xing%He%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chun-liang%Lei%NULL%0,                             David S.C.%Hui%NULL%0,                             Bin%Du%NULL%0,                             Lan-juan%Li%NULL%0,                             Guang%Zeng%NULL%0,                             Kwok-Yung%Yuen%NULL%0,                             Ru-chong%Chen%NULL%0,                             Chun-li%Tang%NULL%0,                             Tao%Wang%NULL%0,                             Ping-yan%Chen%NULL%0,                             Jie%Xiang%NULL%0,                             Shi-yue%Li%NULL%0,                             Jin-lin%Wang%NULL%0,                             Zi-jing%Liang%NULL%0,                             Yi-xiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Ya-hua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jian-ming%Wang%NULL%0,                             Ji-yang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhi-jian%Zheng%NULL%0,                             Shao-qin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Chang-jiang%Ye%NULL%0,                             Shao-yong%Zhu%NULL%0,                             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                             Yuanyuan%Xing%NULL%2,                             Yu%Xiao%NULL%2,                             Liping%Deng%NULL%3,                             Qiu%Zhao%NULL%2,                             Hongling%Wang%NULL%2,                             Yong%Xiong%NULL%4,                             Zhenshun%Cheng%NULL%0,                             Shicheng%Gao%NULL%3,                             Ke%Liang%NULL%3,                             Mingqi%Luo%NULL%3,                             Tielong%Chen%NULL%2,                             Shihui%Song%NULL%3,                             Zhiyong%Ma%NULL%3,                             Xiaoping%Chen%NULL%3,                             Ruiying%Zheng%NULL%2,                             Qian%Cao%NULL%2,                             Fan%Wang%fanndywang@foxmail.com%2,                             Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,                             N -B%Yang%NULL%1,                             F%Ding%NULL%1,                             A H Y%Ma%NULL%1,                             Z -Y%Wang%NULL%2,                             Y -F%Shen%NULL%1,                             C -W%Shi%NULL%1,                             X%Lian%NULL%1,                             J -G%Chu%NULL%1,                             L%Chen%chxmin@hotmail.com%1,                             Z -Y%Wang%NULL%0,                             D -W%Ren%NULL%1,                             G -X%Li%NULL%1,                             X -Q%Chen%chxmin@hotmail.com%1,                             H -J%Shen%NULL%1,                             X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                             Hugues%Spillemaeker%NULL%1,                             Maéva%Kyheng%NULL%1,                             Cassandre%Belin‐Vincent%NULL%1,                             Cédric%Delhaye%NULL%1,                             Adeline%Piérache%NULL%1,                             Tom%Denimal%NULL%1,                             Basile%Verdier%NULL%1,                             Nicolas%Debry%NULL%1,                             Mouhamed%Moussa%NULL%1,                             Guillaume%Schurtz%NULL%1,                             Sina%Porouchani%NULL%1,                             Alessandro%Cosenza%NULL%1,                             Francis%Juthier%NULL%1,                             Thibault%Pamart%NULL%1,                             Marjorie%Richardson%NULL%1,                             Augustin%Coisne%NULL%1,                             Adrien%Hertault%NULL%1,                             Jonathan%Sobocinski%NULL%1,                             Thomas%Modine%NULL%1,                             François%Pontana%NULL%1,                             Alain%Duhamel%NULL%2,                             Julien%Labreuche%NULL%2,                             Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                             Yimei%Yin%18256985@qq.com%1,                             Chang%Hu%1391369733@qq.com%3,                             Xing%Liu%375117565@qq.com%1,                             Xingguo%Zhang%zhangxinguo7909@163.com%1,                             Shuliang%Zhou%350925556@qq.com%1,                             Mingzhi%Jian%Jmzhak@aliyun.com%1,                             Haibo%Xu%xuhaibo1120@hotmail.com%0,                             John%Prowle%j.prowle@qmul.ac.uk%1,                             Bo%Hu%hobbier1979@163.com%0,                             Yirong%Li%liyirong838@163.com%1,                             Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                             Xiao-Xin%Wu%NULL%2,                             Xian-Gao%Jiang%NULL%2,                             Kai-Jin%Xu%NULL%2,                             Ling-Jun%Ying%NULL%2,                             Chun-Lian%Ma%NULL%2,                             Shi-Bo%Li%NULL%2,                             Hua-Ying%Wang%NULL%2,                             Sheng%Zhang%NULL%2,                             Hai-Nv%Gao%NULL%2,                             Ji-Fang%Sheng%NULL%2,                             Hong-Liu%Cai%NULL%2,                             Yun-Qing%Qiu%NULL%2,                             Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                             Chang%Hu%NULL%0,                             Linjie%Luo%NULL%2,                             Fang%Fang%NULL%0,                             Yongfeng%Chen%NULL%2,                             Jianguo%Li%NULL%2,                             Zhiyong%Peng%NULL%0,                             Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                             Chun%Liao%lc7spring@163.com%1,                             Qi-hong%Fan%1187286305@qq.com%1,                             Hong-bo%Chen%hbchen@hust.edu.cn%1,                             Xue-gong%Zhao%NULL%1,                             Zhong-guo%Xie%NULL%1,                             Xi-lin%Li%NULL%1,                             Chun-xi%Chen%NULL%1,                             Xiao-xia%Lu%NULL%1,                             Zhi-sheng%Liu%NULL%1,                             Wei%Lu%NULL%1,                             Chun-bao%Chen%NULL%1,                             Rong%Jiao%NULL%1,                             Ai-ming%Zhang%NULL%1,                             Jin-tang%Wang%NULL%1,                             Xi-wei%Ding%NULL%1,                             Yao-guang%Zeng%NULL%1,                             Li-ping%Cheng%NULL%1,                             Qing-feng%Huang%NULL%1,                             Jiang%Wu%NULL%0,                             Xi-chang%Luo%NULL%1,                             Zhu-jun%Wang%NULL%1,                             Yan-yan%Zhong%NULL%1,                             Yan%Bai%yanbaixh@hust.edu.cn%1,                             Xiao-yan%Wu%xwu@hust.edu.cn%1,                             Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%0,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%0,                             Zhibo%Liu%NULL%0,                             Jie%Xiang%NULL%0,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%0,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%0,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%0,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%0,                             Yi%Zhang%NULL%0,                             Hua%Chen%NULL%0,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                             Mengqi%Tu%NULL%2,                             Shipei%Wang%NULL%2,                             Sichao%Chen%NULL%2,                             Wei%Zhou%NULL%0,                             Danyang%Chen%NULL%2,                             Lin%Zhou%NULL%2,                             Min%Wang%NULL%2,                             Yan%Zhao%NULL%4,                             Wen%Zeng%NULL%2,                             Qi%Huang%NULL%2,                             Hai'bo%Xu%NULL%2,                             Zeming%Liu%NULL%2,                             Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                             Yuan%Yu%NULL%0,                             Jiqian%Xu%NULL%0,                             Huaqing%Shu%NULL%0,                             Jia'an%Xia%NULL%0,                             Hong%Liu%NULL%0,                             Yongran%Wu%NULL%0,                             Lu%Zhang%NULL%0,                             Zhui%Yu%NULL%0,                             Minghao%Fang%NULL%0,                             Ting%Yu%NULL%0,                             Yaxin%Wang%NULL%0,                             Shangwen%Pan%NULL%0,                             Xiaojing%Zou%NULL%0,                             Shiying%Yuan%NULL%0,                             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                             Wei-jie%Guan%NULL%2,                             Cai-chen%Li%NULL%3,                             Yi-min%Li%NULL%3,                             Heng-rui%Liang%NULL%3,                             Yi%Zhao%NULL%3,                             Xiao-qing%Liu%NULL%3,                             Ling%Sang%NULL%0,                             Ru-chong%Chen%NULL%0,                             Chun-li%Tang%NULL%0,                             Tao%Wang%NULL%0,                             Wei%Wang%NULL%0,                             Qi-hua%He%NULL%2,                             Zi-sheng%Chen%NULL%3,                             Sook-San%Wong%NULL%2,                             Mark%Zanin%NULL%2,                             Jun%Liu%NULL%2,                             Xin%Xu%NULL%3,                             Jun%Huang%NULL%2,                             Jian-fu%Li%NULL%3,                             Li-min%Ou%NULL%3,                             Bo%Cheng%NULL%3,                             Shan%Xiong%NULL%3,                             Zhan-hong%Xie%NULL%2,                             Zheng-yi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chun-liang%Lei%NULL%0,                             Yi-xiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Ya-hua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jian-ming%Wang%NULL%0,                             Ji-yang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhi-jian%Zheng%NULL%0,                             Shao-qin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Chang-jiang%Ye%NULL%0,                             Shao-yong%Zhu%NULL%0,                             Lin-ling%Cheng%NULL%3,                             Feng%Ye%NULL%5,                             Shi-yue%Li%NULL%0,                             Jin-ping%Zheng%NULL%3,                             Nuo-fu%Zhang%NULL%3,                             Nan-shan%Zhong%NULL%0,                             Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                             Simon A%Jones%NULL%1,                             Jie%Yang%NULL%0,                             Harish%Rajagopalan%NULL%1,                             Luke%O’Donnell%NULL%1,                             Yelena%Chernyak%NULL%1,                             Katie A%Tobin%NULL%1,                             Robert J%Cerfolio%NULL%1,                             Fritz%Francois%NULL%1,                             Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0,                             Stephanie%Bialek%NULL%1,                             Ellen%Boundy%NULL%1,                             Virginia%Bowen%NULL%1,                             Nancy%Chow%NULL%2,                             Amanda%Cohn%NULL%1,                             Nicole%Dowling%NULL%1,                             Sascha%Ellington%NULL%1,                             Ryan%Gierke%NULL%2,                             Aron%Hall%NULL%2,                             Jessica%MacNeil%NULL%1,                             Priti%Patel%NULL%1,                             Georgina%Peacock%NULL%1,                             Tamara%Pilishvili%NULL%2,                             Hilda%Razzaghi%NULL%1,                             Nia%Reed%NULL%1,                             Matthew%Ritchey%NULL%2,                             Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%0,                             Pedro%Póvoa%NULL%1,                             Vicente%Souza-Dantas%NULL%1,                             André C.%Kalil%NULL%1,                             Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                             Graeme%MacLaren%NULL%1,                             Philip S%Boonstra%NULL%1,                             Theodore J%Iwashyna%NULL%1,                             Arthur S%Slutsky%NULL%1,                             Eddy%Fan%NULL%1,                             Robert H%Bartlett%NULL%1,                             Joseph E%Tonna%NULL%1,                             Robert%Hyslop%NULL%1,                             Jeffrey J%Fanning%NULL%1,                             Peter T%Rycus%NULL%1,                             Steve J%Hyer%NULL%1,                             Marc M%Anders%NULL%1,                             Cara L%Agerstrand%NULL%1,                             Katarzyna%Hryniewicz%NULL%1,                             Rodrigo%Diaz%NULL%1,                             Roberto%Lorusso%NULL%1,                             Alain%Combes%NULL%1,                             Daniel%Brodie%NULL%4,                             Peta%Alexander%NULL%1,                             Nicholas%Barrett%NULL%1,                             Jan%Bělohlávek%NULL%1,                             Dale%Fisher%NULL%1,                             John%Fraser%NULL%1,                             Ali Ait%Hssain%NULL%1,                             Jae Sung%Jung%NULL%1,                             Michael%McMullan%NULL%1,                             Yatin%Mehta%NULL%1,                             Mark T.%Ogino%NULL%1,                             Matthew L.%Paden%NULL%1,                             Kiran%Shekar%NULL%1,                             Christine%Stead%NULL%1,                             Yasir%Abu-Omar%NULL%1,                             Vanni%Agnoletti%NULL%1,                             Anzila%Akbar%NULL%1,                             Huda%Alfoudri%NULL%1,                             Carlos%Alviar%NULL%1,                             Vladimir%Aronsky%NULL%1,                             Erin%August%NULL%1,                             Georg%Auzinger%NULL%1,                             Hilda%Aveja%NULL%1,                             Rhonda%Bakken%NULL%1,                             Joan%Balcells%NULL%1,                             Sripal%Bangalore%NULL%1,                             Bernard W.%Barnes%NULL%1,                             Alaiza%Bautista%NULL%1,                             Lorraine L.%Bellows%NULL%1,                             Felipe%Beltran%NULL%1,                             Peyman%Benharash%NULL%1,                             Marco%Benni%NULL%1,                             Jennifer%Berg%NULL%1,                             Pietro%Bertini%NULL%1,                             Pablo%Blanco-Schweizer%NULL%1,                             Melissa%Brunsvold%NULL%1,                             Jenny%Budd%NULL%1,                             Debra%Camp%NULL%1,                             Mark%Caridi-Scheible%NULL%0,                             Edmund%Carton%NULL%1,                             Elena%Casanova-Ghosh%NULL%1,                             Anthony%Castleberry%NULL%1,                             Christopher T.%Chipongian%NULL%1,                             Chang Woo%Choi%NULL%1,                             Alessandro%Circelli%NULL%1,                             Elliott%Cohen%NULL%1,                             Michael%Collins%NULL%1,                             Scott%Copus%NULL%1,                             Jill%Coy%NULL%1,                             Brandon%Crist%NULL%1,                             Leonora%Cruz%NULL%1,                             Mirosław%Czuczwar%NULL%1,                             Mani%Daneshmand%NULL%1,                             Daniel%Davis II%NULL%1,                             Kim%De la Cruz%NULL%1,                             Cyndie%Devers%NULL%1,                             Toni%Duculan%NULL%1,                             Lucian%Durham%NULL%1,                             Subbarao%Elapavaluru%NULL%1,                             Carlos V.%Elzo Kraemer%NULL%1,                             EDMÍLSON CARDOSO%Filho%NULL%1,                             Jillian%Fitzgerald%NULL%1,                             Giuseppe%Foti%NULL%1,                             Matthew%Fox%NULL%1,                             David%Fritschen%NULL%1,                             David%Fullerton%NULL%1,                             Elton%Gelandt%NULL%1,                             Stacy%Gerle%NULL%1,                             Marco%Giani%NULL%1,                             Si Guim%Goh%NULL%1,                             Sara%Govener%NULL%1,                             Julie%Grone%NULL%1,                             Miles%Guber%NULL%1,                             Vadim%Gudzenko%NULL%1,                             Daniel%Gutteridge%NULL%1,                             Jennifer%Guy%NULL%1,                             Jonathan%Haft%NULL%1,                             Cameron%Hall%NULL%1,                             Ibrahim Fawzy%Hassan%NULL%1,                             Rubén%Herrán%NULL%1,                             Hitoshi%Hirose%NULL%1,                             Abdulsalam Saif%Ibrahim%NULL%1,                             Don%Igielski%NULL%1,                             Felicia A.%Ivascu%NULL%1,                             Jaume%Izquierdo Blasco%NULL%1,                             Julie%Jackson%NULL%1,                             Harsh%Jain%NULL%1,                             Bhavini%Jaiswal%NULL%1,                             Andrea C.%Johnson%NULL%1,                             Jenniver A.%Jurynec%NULL%1,                             Norma M%Kellter%NULL%1,                             Adam%Kohl%NULL%1,                             Zachary%Kon%NULL%1,                             Markus%Kredel%NULL%1,                             Karen%Kriska%NULL%1,                             Chandra%Kunavarapu%NULL%1,                             Oude%Lansink-Hartgring%NULL%1,                             Jeliene%LaRocque%NULL%1,                             Sharon Beth%Larson%NULL%1,                             Tracie%Layne%NULL%1,                             Stephane%Ledot%NULL%1,                             Napolitan%Lena%NULL%1,                             Jonathan%Lillie%NULL%1,                             Gösta%Lotz%NULL%1,                             Mark%Lucas%NULL%1,                             Lee%Ludwigson%NULL%1,                             Jacinta J.%Maas%NULL%1,                             Joanna%Maertens%NULL%1,                             David%Mast%NULL%1,                             Scott%McCardle%NULL%1,                             Bernard%McDonald%NULL%1,                             Allison%McLarty%NULL%1,                             Chelsea%McMahon%NULL%1,                             Patrick%Meybohm%NULL%1,                             Bart%Meyns%NULL%1,                             Casey%Miller%NULL%1,                             Fernando%Moraes Neto%NULL%1,                             Kelly%Morris%NULL%1,                             Ralf%Muellenbach%NULL%1,                             Meghan%Nicholson%NULL%1,                             Serena%O'Brien%NULL%1,                             Kathryn%O'Keefe%NULL%1,                             Tawnya%Ogston%NULL%1,                             Gary%Oldenburg%NULL%1,                             Fabiana M.%Oliveira%NULL%1,                             Emily%Oppel%NULL%1,                             Diego%Pardo%NULL%2,                             Diego%Pardo%NULL%0,                             Sara J.%Parker%NULL%1,                             Finn M.%Pedersen%NULL%1,                             Crescens%Pellecchia%NULL%1,                             Jose A.S.%Pelligrini%NULL%1,                             Thao T.N.%Pham%NULL%1,                             Ann R.%Phillips%NULL%1,                             Tasneem%Pirani%NULL%1,                             Paweł%Piwowarczyk%NULL%1,                             Robert%Plambeck%NULL%1,                             William%Pruett%NULL%1,                             Brittany%Quandt%NULL%1,                             Kollengode%Ramanathan%NULL%1,                             Alejandro%Rey%NULL%1,                             Christian%Reyher%NULL%1,                             Jordi%Riera del Brio%NULL%1,                             Rachel%Roberts%NULL%1,                             David%Roe%NULL%1,                             Peter P.%Roeleveld%NULL%1,                             Janet%Rudy%NULL%1,                             Luis F.%Rueda%NULL%1,                             Emanuele%Russo%NULL%1,                             Jesús%Sánchez Ballesteros%NULL%1,                             Nancy%Satou%NULL%1,                             Mauricio Guidi%Saueressig%NULL%1,                             Paul C.%Saunders%NULL%1,                             Margaret%Schlotterbeck%NULL%1,                             Patricia%Schwarz%NULL%1,                             Nicole%Scriven%NULL%1,                             Alexis%Serra%NULL%1,                             Mohammad%Shamsah%NULL%1,                             Lucy%Sim%NULL%1,                             Alexandra%Smart%NULL%1,                             Adam%Smith%NULL%1,                             Deane%Smith%NULL%1,                             Maggie%Smith%NULL%1,                             Neel%Sodha%NULL%1,                             Michael%Sonntagbauer%NULL%1,                             Marc%Sorenson%NULL%1,                             Eric B%Stallkamp%NULL%1,                             Allison%Stewart%NULL%1,                             Kathy%Swartz%NULL%1,                             Koji%Takeda%NULL%1,                             Shaun%Thompson%NULL%1,                             Bridget%Toy%NULL%1,                             Divina%Tuazon%NULL%1,                             Makoto%Uchiyama%NULL%1,                             Obiora I.%Udeozo%NULL%1,                             Scott%van Poppel%NULL%1,                             Corey%Ventetuolo%NULL%1,                             Leen%Vercaemst%NULL%1,                             Nguyen V.%Vinh Chau%NULL%1,                             I-Wen%Wang%NULL%1,                             Carrie%Williamson%NULL%1,                             Brock%Wilson%NULL%1,                             Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                              Dhaval%Kolte%NULL%1,                              Mary E.%Cadigan%NULL%1,                              Elizabeth%Laikhter%NULL%1,                              Kevin%Sinclair%NULL%1,                              Eugene%Pomerantsev%NULL%1,                              Michael A.%Fifer%NULL%1,                              Thoralf M.%Sundt%NULL%1,                              Robert W.%Yeh%NULL%1,                              Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                              Yeming%Wang%NULL%0,                              Xingwang%Li%NULL%0,                              Lili%Ren%NULL%0,                              Jianping%Zhao%NULL%0,                              Yi%Hu%NULL%0,                              Li%Zhang%NULL%0,                              Guohui%Fan%NULL%0,                              Jiuyang%Xu%NULL%0,                              Xiaoying%Gu%NULL%0,                              Zhenshun%Cheng%NULL%0,                              Ting%Yu%NULL%0,                              Jiaan%Xia%NULL%0,                              Yuan%Wei%NULL%0,                              Wenjuan%Wu%NULL%0,                              Xuelei%Xie%NULL%0,                              Wen%Yin%NULL%0,                              Hui%Li%NULL%0,                              Min%Liu%NULL%0,                              Yan%Xiao%NULL%0,                              Hong%Gao%NULL%0,                              Li%Guo%NULL%0,                              Jungang%Xie%NULL%0,                              Guangfa%Wang%NULL%0,                              Rongmeng%Jiang%NULL%0,                              Zhancheng%Gao%NULL%0,                              Qi%Jin%NULL%0,                              Jianwei%Wang%wangjw28@163.com%0,                              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                              Yi%Xiang%NULL%0,                              Wei%Fang%NULL%0,                              Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                              Boqun%Li%279685211@qq.com%0,                              Boqun%Li%279685211@qq.com%0,                              Yanjun%Hu%huyanjun@163.com%0,                              Chunhui%Lang%NULL%0,                              Daoqiu%Huang%NULL%0,                              Qiuyan%Sun%NULL%0,                              Yan%Xiong%NULL%0,                              Xia%Huang%NULL%0,                              Jinglong%Lv%NULL%0,                              Yaling%Luo%NULL%0,                              Li%Shen%NULL%0,                              Haoran%Yang%NULL%0,                              Gu%Huang%NULL%0,                              Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                              Mark%Caridi-Scheible%NULL%3,                              James M.%Blum%NULL%2,                              Chad%Robichaux%NULL%2,                              Colleen%Kraft%NULL%2,                              Jesse T.%Jacob%NULL%2,                              Craig S.%Jabaley%NULL%2,                              David%Carpenter%NULL%2,                              Roberta%Kaplow%NULL%2,                              Alfonso C.%Hernandez-Romieu%NULL%2,                              Max W.%Adelman%NULL%2,                              Greg S.%Martin%NULL%2,                              Craig M.%Coopersmith%NULL%2,                              David J.%Murphy%NULL%2,                              NULL%NULL%NULL%0,                               S.%Auld%null%1,                               M.% Caridi-Scheible%null%1,                               J. M.% Blum%null%1,                               C. J.% Robichaux%null%1,                               C. S.% Kraft%null%1,                               J. T.% Jacob%null%1,                               C. S.% Jabaley%null%1,                               D.% Carpenter%null%1,                               R.% Kaplow%null%1,                               A. C.% Hernandez%null%1,                               M. W.% Adelman%null%1,                               G. S.% Martin%null%1,                               C. M.% Coopersmith%null%1,                               D. J.% Murphy%null%1,                                 % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                             S.%Auld%null%1,                             M.% Caridi-Scheible%null%1,                             J. M.% Blum%null%1,                             C. J.% Robichaux%null%1,                             C. S.% Kraft%null%1,                             J. T.% Jacob%null%1,                             C. S.% Jabaley%null%1,                             D.% Carpenter%null%1,                             R.% Kaplow%null%1,                             A. C.% Hernandez%null%1,                             M. W.% Adelman%null%1,                             G. S.% Martin%null%1,                             C. M.% Coopersmith%null%1,                             D. J.% Murphy%null%1,                               % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,           S.%Auld%null%1,           M.% Caridi-Scheible%null%1,           J. M.% Blum%null%1,           C. J.% Robichaux%null%1,           C. S.% Kraft%null%1,           J. T.% Jacob%null%1,           C. S.% Jabaley%null%1,           D.% Carpenter%null%1,           R.% Kaplow%null%1,           A. C.% Hernandez%null%1,           M. W.% Adelman%null%1,           G. S.% Martin%null%1,           C. M.% Coopersmith%null%1,           D. J.% Murphy%null%1,             % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                              Bijan J.%Ghassemieh%NULL%2,                              Michelle%Nichols%NULL%2,                              Richard%Kim%NULL%2,                              Keith R.%Jerome%NULL%2,                              Arun K.%Nalla%NULL%2,                              Alexander L.%Greninger%NULL%2,                              Sudhakar%Pipavath%NULL%2,                              Mark M.%Wurfel%NULL%2,                              Laura%Evans%NULL%2,                              Patricia A.%Kritek%NULL%2,                              T. Eoin%West%NULL%2,                              Andrew%Luks%NULL%2,                              Anthony%Gerbino%NULL%2,                              Chris R.%Dale%NULL%2,                              Jason D.%Goldman%NULL%2,                              Shane%O’Mahony%NULL%2,                              Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                              Tangkai%Qi%NULL%1,                              Li%Liu%NULL%1,                              Yun%Ling%NULL%0,                              Zhiping%Qian%NULL%1,                              Tao%Li%NULL%0,                              Feng%Li%NULL%1,                              Qingnian%Xu%NULL%1,                              Yuyi%Zhang%NULL%1,                              Shuibao%Xu%NULL%1,                              Zhigang%Song%NULL%1,                              Yigang%Zeng%NULL%1,                              Yinzhong%Shen%NULL%1,                              Yuxin%Shi%NULL%2,                              Tongyu%Zhu%NULL%2,                              Hongzhou%Lu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                              Min%Zhou%NULL%0,                              Xuan%Dong%NULL%0,                              Jieming%Qu%NULL%0,                              Fengyun%Gong%NULL%0,                              Yang%Han%NULL%0,                              Yang%Qiu%NULL%0,                              Jingli%Wang%NULL%0,                              Ying%Liu%NULL%0,                              Yuan%Wei%NULL%0,                              Jia'an%Xia%NULL%0,                              Ting%Yu%NULL%0,                              Xinxin%Zhang%NULL%0,                              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                              Zheng-yi%Ni%NULL%0,                              Zheng-yi%Ni%NULL%0,                              Yu%Hu%NULL%0,                              Wen-hua%Liang%NULL%0,                              Chun-quan%Ou%NULL%0,                              Jian-xing%He%NULL%0,                              Lei%Liu%NULL%0,                              Hong%Shan%NULL%0,                              Chun-liang%Lei%NULL%0,                              David S.C.%Hui%NULL%0,                              Bin%Du%NULL%0,                              Lan-juan%Li%NULL%0,                              Guang%Zeng%NULL%0,                              Kwok-Yung%Yuen%NULL%0,                              Ru-chong%Chen%NULL%0,                              Chun-li%Tang%NULL%0,                              Tao%Wang%NULL%0,                              Ping-yan%Chen%NULL%0,                              Jie%Xiang%NULL%0,                              Shi-yue%Li%NULL%0,                              Jin-lin%Wang%NULL%0,                              Zi-jing%Liang%NULL%0,                              Yi-xiang%Peng%NULL%0,                              Li%Wei%NULL%0,                              Yong%Liu%NULL%0,                              Ya-hua%Hu%NULL%0,                              Peng%Peng%NULL%0,                              Jian-ming%Wang%NULL%0,                              Ji-yang%Liu%NULL%0,                              Zhong%Chen%NULL%0,                              Gang%Li%NULL%0,                              Zhi-jian%Zheng%NULL%0,                              Shao-qin%Qiu%NULL%0,                              Jie%Luo%NULL%0,                              Chang-jiang%Ye%NULL%0,                              Shao-yong%Zhu%NULL%0,                              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                              Yuanyuan%Xing%NULL%2,                              Yu%Xiao%NULL%2,                              Liping%Deng%NULL%3,                              Qiu%Zhao%NULL%2,                              Hongling%Wang%NULL%2,                              Yong%Xiong%NULL%4,                              Zhenshun%Cheng%NULL%0,                              Shicheng%Gao%NULL%3,                              Ke%Liang%NULL%3,                              Mingqi%Luo%NULL%3,                              Tielong%Chen%NULL%2,                              Shihui%Song%NULL%3,                              Zhiyong%Ma%NULL%3,                              Xiaoping%Chen%NULL%3,                              Ruiying%Zheng%NULL%2,                              Qian%Cao%NULL%2,                              Fan%Wang%fanndywang@foxmail.com%2,                              Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,                              N -B%Yang%NULL%1,                              F%Ding%NULL%1,                              A H Y%Ma%NULL%1,                              Z -Y%Wang%NULL%2,                              Y -F%Shen%NULL%1,                              C -W%Shi%NULL%1,                              X%Lian%NULL%1,                              J -G%Chu%NULL%1,                              L%Chen%chxmin@hotmail.com%1,                              Z -Y%Wang%NULL%0,                              D -W%Ren%NULL%1,                              G -X%Li%NULL%1,                              X -Q%Chen%chxmin@hotmail.com%1,                              H -J%Shen%NULL%1,                              X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                              Hugues%Spillemaeker%NULL%1,                              Maéva%Kyheng%NULL%1,                              Cassandre%Belin‐Vincent%NULL%1,                              Cédric%Delhaye%NULL%1,                              Adeline%Piérache%NULL%1,                              Tom%Denimal%NULL%1,                              Basile%Verdier%NULL%1,                              Nicolas%Debry%NULL%1,                              Mouhamed%Moussa%NULL%1,                              Guillaume%Schurtz%NULL%1,                              Sina%Porouchani%NULL%1,                              Alessandro%Cosenza%NULL%1,                              Francis%Juthier%NULL%1,                              Thibault%Pamart%NULL%1,                              Marjorie%Richardson%NULL%1,                              Augustin%Coisne%NULL%1,                              Adrien%Hertault%NULL%1,                              Jonathan%Sobocinski%NULL%1,                              Thomas%Modine%NULL%1,                              François%Pontana%NULL%1,                              Alain%Duhamel%NULL%2,                              Julien%Labreuche%NULL%2,                              Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                              Yimei%Yin%18256985@qq.com%1,                              Chang%Hu%1391369733@qq.com%3,                              Xing%Liu%375117565@qq.com%1,                              Xingguo%Zhang%zhangxinguo7909@163.com%1,                              Shuliang%Zhou%350925556@qq.com%1,                              Mingzhi%Jian%Jmzhak@aliyun.com%1,                              Haibo%Xu%xuhaibo1120@hotmail.com%0,                              John%Prowle%j.prowle@qmul.ac.uk%1,                              Bo%Hu%hobbier1979@163.com%0,                              Yirong%Li%liyirong838@163.com%1,                              Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                              Xiao-Xin%Wu%NULL%2,                              Xian-Gao%Jiang%NULL%2,                              Kai-Jin%Xu%NULL%2,                              Ling-Jun%Ying%NULL%2,                              Chun-Lian%Ma%NULL%2,                              Shi-Bo%Li%NULL%2,                              Hua-Ying%Wang%NULL%2,                              Sheng%Zhang%NULL%2,                              Hai-Nv%Gao%NULL%2,                              Ji-Fang%Sheng%NULL%2,                              Hong-Liu%Cai%NULL%2,                              Yun-Qing%Qiu%NULL%2,                              Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                              Chang%Hu%NULL%0,                              Linjie%Luo%NULL%2,                              Fang%Fang%NULL%0,                              Yongfeng%Chen%NULL%2,                              Jianguo%Li%NULL%2,                              Zhiyong%Peng%NULL%0,                              Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                              Chun%Liao%lc7spring@163.com%1,                              Qi-hong%Fan%1187286305@qq.com%1,                              Hong-bo%Chen%hbchen@hust.edu.cn%1,                              Xue-gong%Zhao%NULL%1,                              Zhong-guo%Xie%NULL%1,                              Xi-lin%Li%NULL%1,                              Chun-xi%Chen%NULL%1,                              Xiao-xia%Lu%NULL%1,                              Zhi-sheng%Liu%NULL%1,                              Wei%Lu%NULL%1,                              Chun-bao%Chen%NULL%1,                              Rong%Jiao%NULL%1,                              Ai-ming%Zhang%NULL%1,                              Jin-tang%Wang%NULL%1,                              Xi-wei%Ding%NULL%1,                              Yao-guang%Zeng%NULL%1,                              Li-ping%Cheng%NULL%1,                              Qing-feng%Huang%NULL%1,                              Jiang%Wu%NULL%0,                              Xi-chang%Luo%NULL%1,                              Zhu-jun%Wang%NULL%1,                              Yan-yan%Zhong%NULL%1,                              Yan%Bai%yanbaixh@hust.edu.cn%1,                              Xiao-yan%Wu%xwu@hust.edu.cn%1,                              Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                              Ting%Yu%NULL%0,                              Ronghui%Du%NULL%0,                              Guohui%Fan%NULL%0,                              Ying%Liu%NULL%0,                              Zhibo%Liu%NULL%0,                              Jie%Xiang%NULL%0,                              Yeming%Wang%NULL%0,                              Bin%Song%NULL%0,                              Xiaoying%Gu%NULL%0,                              Lulu%Guan%NULL%0,                              Yuan%Wei%NULL%0,                              Hui%Li%NULL%0,                              Xudong%Wu%NULL%0,                              Jiuyang%Xu%NULL%0,                              Shengjin%Tu%NULL%0,                              Yi%Zhang%NULL%0,                              Hua%Chen%NULL%0,                              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                              Mengqi%Tu%NULL%2,                              Shipei%Wang%NULL%2,                              Sichao%Chen%NULL%2,                              Wei%Zhou%NULL%0,                              Danyang%Chen%NULL%2,                              Lin%Zhou%NULL%2,                              Min%Wang%NULL%2,                              Yan%Zhao%NULL%4,                              Wen%Zeng%NULL%2,                              Qi%Huang%NULL%2,                              Hai'bo%Xu%NULL%2,                              Zeming%Liu%NULL%2,                              Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                              Yuan%Yu%NULL%0,                              Jiqian%Xu%NULL%0,                              Huaqing%Shu%NULL%0,                              Jia'an%Xia%NULL%0,                              Hong%Liu%NULL%0,                              Yongran%Wu%NULL%0,                              Lu%Zhang%NULL%0,                              Zhui%Yu%NULL%0,                              Minghao%Fang%NULL%0,                              Ting%Yu%NULL%0,                              Yaxin%Wang%NULL%0,                              Shangwen%Pan%NULL%0,                              Xiaojing%Zou%NULL%0,                              Shiying%Yuan%NULL%0,                              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                              Wei-jie%Guan%NULL%2,                              Cai-chen%Li%NULL%3,                              Yi-min%Li%NULL%3,                              Heng-rui%Liang%NULL%3,                              Yi%Zhao%NULL%3,                              Xiao-qing%Liu%NULL%3,                              Ling%Sang%NULL%0,                              Ru-chong%Chen%NULL%0,                              Chun-li%Tang%NULL%0,                              Tao%Wang%NULL%0,                              Wei%Wang%NULL%0,                              Qi-hua%He%NULL%2,                              Zi-sheng%Chen%NULL%3,                              Sook-San%Wong%NULL%2,                              Mark%Zanin%NULL%2,                              Jun%Liu%NULL%2,                              Xin%Xu%NULL%3,                              Jun%Huang%NULL%2,                              Jian-fu%Li%NULL%3,                              Li-min%Ou%NULL%3,                              Bo%Cheng%NULL%3,                              Shan%Xiong%NULL%3,                              Zhan-hong%Xie%NULL%2,                              Zheng-yi%Ni%NULL%0,                              Yu%Hu%NULL%0,                              Lei%Liu%NULL%0,                              Hong%Shan%NULL%0,                              Chun-liang%Lei%NULL%0,                              Yi-xiang%Peng%NULL%0,                              Li%Wei%NULL%0,                              Yong%Liu%NULL%0,                              Ya-hua%Hu%NULL%0,                              Peng%Peng%NULL%0,                              Jian-ming%Wang%NULL%0,                              Ji-yang%Liu%NULL%0,                              Zhong%Chen%NULL%0,                              Gang%Li%NULL%0,                              Zhi-jian%Zheng%NULL%0,                              Shao-qin%Qiu%NULL%0,                              Jie%Luo%NULL%0,                              Chang-jiang%Ye%NULL%0,                              Shao-yong%Zhu%NULL%0,                              Lin-ling%Cheng%NULL%3,                              Feng%Ye%NULL%5,                              Shi-yue%Li%NULL%0,                              Jin-ping%Zheng%NULL%3,                              Nuo-fu%Zhang%NULL%3,                              Nan-shan%Zhong%NULL%0,                              Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                              Simon A%Jones%NULL%1,                              Jie%Yang%NULL%0,                              Harish%Rajagopalan%NULL%1,                              Luke%O’Donnell%NULL%1,                              Yelena%Chernyak%NULL%1,                              Katie A%Tobin%NULL%1,                              Robert J%Cerfolio%NULL%1,                              Fritz%Francois%NULL%1,                              Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                              NULL%NULL%NULL%0,                              NULL%NULL%NULL%0,                              Stephanie%Bialek%NULL%1,                              Ellen%Boundy%NULL%1,                              Virginia%Bowen%NULL%1,                              Nancy%Chow%NULL%2,                              Amanda%Cohn%NULL%1,                              Nicole%Dowling%NULL%1,                              Sascha%Ellington%NULL%1,                              Ryan%Gierke%NULL%2,                              Aron%Hall%NULL%2,                              Jessica%MacNeil%NULL%1,                              Priti%Patel%NULL%1,                              Georgina%Peacock%NULL%1,                              Tamara%Pilishvili%NULL%2,                              Hilda%Razzaghi%NULL%1,                              Nia%Reed%NULL%1,                              Matthew%Ritchey%NULL%2,                              Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%0,                              Pedro%Póvoa%NULL%1,                              Vicente%Souza-Dantas%NULL%1,                              André C.%Kalil%NULL%1,                              Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                              Graeme%MacLaren%NULL%1,                              Philip S%Boonstra%NULL%1,                              Theodore J%Iwashyna%NULL%1,                              Arthur S%Slutsky%NULL%1,                              Eddy%Fan%NULL%1,                              Robert H%Bartlett%NULL%1,                              Joseph E%Tonna%NULL%1,                              Robert%Hyslop%NULL%1,                              Jeffrey J%Fanning%NULL%1,                              Peter T%Rycus%NULL%1,                              Steve J%Hyer%NULL%1,                              Marc M%Anders%NULL%1,                              Cara L%Agerstrand%NULL%1,                              Katarzyna%Hryniewicz%NULL%1,                              Rodrigo%Diaz%NULL%1,                              Roberto%Lorusso%NULL%1,                              Alain%Combes%NULL%1,                              Daniel%Brodie%NULL%4,                              Peta%Alexander%NULL%1,                              Nicholas%Barrett%NULL%1,                              Jan%Bělohlávek%NULL%1,                              Dale%Fisher%NULL%1,                              John%Fraser%NULL%1,                              Ali Ait%Hssain%NULL%1,                              Jae Sung%Jung%NULL%1,                              Michael%McMullan%NULL%1,                              Yatin%Mehta%NULL%1,                              Mark T.%Ogino%NULL%1,                              Matthew L.%Paden%NULL%1,                              Kiran%Shekar%NULL%1,                              Christine%Stead%NULL%1,                              Yasir%Abu-Omar%NULL%1,                              Vanni%Agnoletti%NULL%1,                              Anzila%Akbar%NULL%1,                              Huda%Alfoudri%NULL%1,                              Carlos%Alviar%NULL%1,                              Vladimir%Aronsky%NULL%1,                              Erin%August%NULL%1,                              Georg%Auzinger%NULL%1,                              Hilda%Aveja%NULL%1,                              Rhonda%Bakken%NULL%1,                              Joan%Balcells%NULL%1,                              Sripal%Bangalore%NULL%1,                              Bernard W.%Barnes%NULL%1,                              Alaiza%Bautista%NULL%1,                              Lorraine L.%Bellows%NULL%1,                              Felipe%Beltran%NULL%1,                              Peyman%Benharash%NULL%1,                              Marco%Benni%NULL%1,                              Jennifer%Berg%NULL%1,                              Pietro%Bertini%NULL%1,                              Pablo%Blanco-Schweizer%NULL%1,                              Melissa%Brunsvold%NULL%1,                              Jenny%Budd%NULL%1,                              Debra%Camp%NULL%1,                              Mark%Caridi-Scheible%NULL%0,                              Edmund%Carton%NULL%1,                              Elena%Casanova-Ghosh%NULL%1,                              Anthony%Castleberry%NULL%1,                              Christopher T.%Chipongian%NULL%1,                              Chang Woo%Choi%NULL%1,                              Alessandro%Circelli%NULL%1,                              Elliott%Cohen%NULL%1,                              Michael%Collins%NULL%1,                              Scott%Copus%NULL%1,                              Jill%Coy%NULL%1,                              Brandon%Crist%NULL%1,                              Leonora%Cruz%NULL%1,                              Mirosław%Czuczwar%NULL%1,                              Mani%Daneshmand%NULL%1,                              Daniel%Davis II%NULL%1,                              Kim%De la Cruz%NULL%1,                              Cyndie%Devers%NULL%1,                              Toni%Duculan%NULL%1,                              Lucian%Durham%NULL%1,                              Subbarao%Elapavaluru%NULL%1,                              Carlos V.%Elzo Kraemer%NULL%1,                              EDMÍLSON CARDOSO%Filho%NULL%1,                              Jillian%Fitzgerald%NULL%1,                              Giuseppe%Foti%NULL%1,                              Matthew%Fox%NULL%1,                              David%Fritschen%NULL%1,                              David%Fullerton%NULL%1,                              Elton%Gelandt%NULL%1,                              Stacy%Gerle%NULL%1,                              Marco%Giani%NULL%1,                              Si Guim%Goh%NULL%1,                              Sara%Govener%NULL%1,                              Julie%Grone%NULL%1,                              Miles%Guber%NULL%1,                              Vadim%Gudzenko%NULL%1,                              Daniel%Gutteridge%NULL%1,                              Jennifer%Guy%NULL%1,                              Jonathan%Haft%NULL%1,                              Cameron%Hall%NULL%1,                              Ibrahim Fawzy%Hassan%NULL%1,                              Rubén%Herrán%NULL%1,                              Hitoshi%Hirose%NULL%1,                              Abdulsalam Saif%Ibrahim%NULL%1,                              Don%Igielski%NULL%1,                              Felicia A.%Ivascu%NULL%1,                              Jaume%Izquierdo Blasco%NULL%1,                              Julie%Jackson%NULL%1,                              Harsh%Jain%NULL%1,                              Bhavini%Jaiswal%NULL%1,                              Andrea C.%Johnson%NULL%1,                              Jenniver A.%Jurynec%NULL%1,                              Norma M%Kellter%NULL%1,                              Adam%Kohl%NULL%1,                              Zachary%Kon%NULL%1,                              Markus%Kredel%NULL%1,                              Karen%Kriska%NULL%1,                              Chandra%Kunavarapu%NULL%1,                              Oude%Lansink-Hartgring%NULL%1,                              Jeliene%LaRocque%NULL%1,                              Sharon Beth%Larson%NULL%1,                              Tracie%Layne%NULL%1,                              Stephane%Ledot%NULL%1,                              Napolitan%Lena%NULL%1,                              Jonathan%Lillie%NULL%1,                              Gösta%Lotz%NULL%1,                              Mark%Lucas%NULL%1,                              Lee%Ludwigson%NULL%1,                              Jacinta J.%Maas%NULL%1,                              Joanna%Maertens%NULL%1,                              David%Mast%NULL%1,                              Scott%McCardle%NULL%1,                              Bernard%McDonald%NULL%1,                              Allison%McLarty%NULL%1,                              Chelsea%McMahon%NULL%1,                              Patrick%Meybohm%NULL%1,                              Bart%Meyns%NULL%1,                              Casey%Miller%NULL%1,                              Fernando%Moraes Neto%NULL%1,                              Kelly%Morris%NULL%1,                              Ralf%Muellenbach%NULL%1,                              Meghan%Nicholson%NULL%1,                              Serena%O'Brien%NULL%1,                              Kathryn%O'Keefe%NULL%1,                              Tawnya%Ogston%NULL%1,                              Gary%Oldenburg%NULL%1,                              Fabiana M.%Oliveira%NULL%1,                              Emily%Oppel%NULL%1,                              Diego%Pardo%NULL%2,                              Diego%Pardo%NULL%0,                              Sara J.%Parker%NULL%1,                              Finn M.%Pedersen%NULL%1,                              Crescens%Pellecchia%NULL%1,                              Jose A.S.%Pelligrini%NULL%1,                              Thao T.N.%Pham%NULL%1,                              Ann R.%Phillips%NULL%1,                              Tasneem%Pirani%NULL%1,                              Paweł%Piwowarczyk%NULL%1,                              Robert%Plambeck%NULL%1,                              William%Pruett%NULL%1,                              Brittany%Quandt%NULL%1,                              Kollengode%Ramanathan%NULL%1,                              Alejandro%Rey%NULL%1,                              Christian%Reyher%NULL%1,                              Jordi%Riera del Brio%NULL%1,                              Rachel%Roberts%NULL%1,                              David%Roe%NULL%1,                              Peter P.%Roeleveld%NULL%1,                              Janet%Rudy%NULL%1,                              Luis F.%Rueda%NULL%1,                              Emanuele%Russo%NULL%1,                              Jesús%Sánchez Ballesteros%NULL%1,                              Nancy%Satou%NULL%1,                              Mauricio Guidi%Saueressig%NULL%1,                              Paul C.%Saunders%NULL%1,                              Margaret%Schlotterbeck%NULL%1,                              Patricia%Schwarz%NULL%1,                              Nicole%Scriven%NULL%1,                              Alexis%Serra%NULL%1,                              Mohammad%Shamsah%NULL%1,                              Lucy%Sim%NULL%1,                              Alexandra%Smart%NULL%1,                              Adam%Smith%NULL%1,                              Deane%Smith%NULL%1,                              Maggie%Smith%NULL%1,                              Neel%Sodha%NULL%1,                              Michael%Sonntagbauer%NULL%1,                              Marc%Sorenson%NULL%1,                              Eric B%Stallkamp%NULL%1,                              Allison%Stewart%NULL%1,                              Kathy%Swartz%NULL%1,                              Koji%Takeda%NULL%1,                              Shaun%Thompson%NULL%1,                              Bridget%Toy%NULL%1,                              Divina%Tuazon%NULL%1,                              Makoto%Uchiyama%NULL%1,                              Obiora I.%Udeozo%NULL%1,                              Scott%van Poppel%NULL%1,                              Corey%Ventetuolo%NULL%1,                              Leen%Vercaemst%NULL%1,                              Nguyen V.%Vinh Chau%NULL%1,                              I-Wen%Wang%NULL%1,                              Carrie%Williamson%NULL%1,                              Brock%Wilson%NULL%1,                              Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%0, Dhaval%Kolte%NULL%1, Mary E.%Cadigan%NULL%1, Elizabeth%Laikhter%NULL%1, Kevin%Sinclair%NULL%1, Eugene%Pomerantsev%NULL%1, Michael A.%Fifer%NULL%1, Thoralf M.%Sundt%NULL%1, Robert W.%Yeh%NULL%1, Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%0, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%0, Li%Zhang%NULL%0, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%0, Ting%Yu%NULL%0, Jiaan%Xia%NULL%0, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%0, Xuelei%Xie%NULL%0, Wen%Yin%NULL%0, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Li%Guo%NULL%0, Jungang%Xie%NULL%0, Guangfa%Wang%NULL%0, Rongmeng%Jiang%NULL%0, Zhancheng%Gao%NULL%0, Qi%Jin%NULL%0, Jianwei%Wang%wangjw28@163.com%0, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>The outbreak of the novel coronavirus in China (SARS‐CoV‐2) that began in December 2019 presents a significant and urgent threat to global health.
+ This study was conducted to provide the international community with a deeper understanding of this new infectious disease.
+ Epidemiological, clinical features, laboratory findings, radiological characteristics, treatment, and clinical outcomes of 135 patients in northeast Chongqing were collected and analyzed in this study.
+ A total of 135 hospitalized patients with COVID‐19 were enrolled.
+ The median age was 47 years (interquartile range, 36‐55), and there was no significant gender difference (53.3% men).
+ The majority of patients had contact with people from the Wuhan area.
+ Forty‐three (31.9%) patients had underlying disease, primarily hypertension (13 [9.6%]), diabetes (12 [8.9%]), cardiovascular disease (7 [5.2%]), and malignancy (4 [3.0%]).
+ Common symptoms included fever (120 [88.9%]), cough (102 [76.5%]), and fatigue (44 [32.5%]).
+ Chest computed tomography scans showed bilateral patchy shadows or ground glass opacity in the lungs of all the patients.
+ All patients received antiviral therapy (135 [100%]) (Kaletra and interferon were both used), antibacterial therapy (59 [43.7%]), and corticosteroids (36 [26.7%]).
+ In addition, many patients received traditional Chinese medicine (TCM) (124 [91.8%]).
+ It is suggested that patients should receive Kaletra early and should be treated by a combination of Western and Chinese medicines.
+ Compared to the mild cases, the severe ones had lower lymphocyte counts and higher plasma levels of Pt, APTT, d‐dimer, lactate dehydrogenase, PCT, ALB, C‐reactive protein, and aspartate aminotransferase.
+ This study demonstrates the clinic features and therapies of 135 COVID‐19 patients.
+ Kaletra and TCM played an important role in the treatment of the viral pneumonia.
+ Further studies are required to explore the role of Kaletra and TCM in the treatment of COVID‐19.</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0, Yi%Xiang%NULL%0, Wei%Fang%NULL%0, Yu%Zheng%yuzheng1@cdutcm.edu.cn%0, Boqun%Li%279685211@qq.com%0, Boqun%Li%279685211@qq.com%0, Yanjun%Hu%huyanjun@163.com%0, Chunhui%Lang%NULL%0, Daoqiu%Huang%NULL%0, Qiuyan%Sun%NULL%0, Yan%Xiong%NULL%0, Xia%Huang%NULL%0, Jinglong%Lv%NULL%0, Yaling%Luo%NULL%0, Li%Shen%NULL%0, Haoran%Yang%NULL%0, Gu%Huang%NULL%0, Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>ICU and ventilator mortality among critically ill adults with COVID-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="P2"&gt;We report preliminary data from a cohort of adults admitted to COVID-designated intensive care units from March 6 through April 17, 2020 across an academic healthcare system.
+ Among 217 critically ill patients, mortality for those who required mechanical ventilation was 29.7% (49/165), with 8.5% (14/165) of patients still on the ventilator at the time of this report.
+ Overall mortality to date in this critically ill cohort is 25.8% (56/217), and 40.1% (87/217) patients have survived to hospital discharge.
+ Despite multiple reports of mortality rates exceeding 50% among critically ill adults with COVID-19, particularly among those requiring mechanical ventilation, our early experience indicates that many patients survive their critical illness.
+</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0, Mark%Caridi-Scheible%NULL%0, James M.%Blum%NULL%0, Chad%Robichaux%NULL%0, Colleen%Kraft%NULL%0, Jesse T.%Jacob%NULL%0, Craig S.%Jabaley%NULL%0, David%Carpenter%NULL%0, Roberta%Kaplow%NULL%0, Alfonso C.%Hernandez-Romieu%NULL%0, Max W.%Adelman%NULL%0, Greg S.%Martin%NULL%0, Craig M.%Coopersmith%NULL%0, David J.%Murphy%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>PMC7276026</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor Laboratory</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0, Bijan J.%Ghassemieh%NULL%0, Michelle%Nichols%NULL%0, Richard%Kim%NULL%0, Keith R.%Jerome%NULL%0, Arun K.%Nalla%NULL%0, Alexander L.%Greninger%NULL%0, Sudhakar%Pipavath%NULL%0, Mark M.%Wurfel%NULL%0, Laura%Evans%NULL%0, Patricia A.%Kritek%NULL%0, T. Eoin%West%NULL%0, Andrew%Luks%NULL%0, Anthony%Gerbino%NULL%0, Chris R.%Dale%NULL%0, Jason D.%Goldman%NULL%0, Shane%O’Mahony%NULL%0, Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Most of the COVID-19 cases are mild.
+</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0, Tangkai%Qi%NULL%0, Li%Liu%NULL%0, Yun%Ling%NULL%0, Zhiping%Qian%NULL%0, Tao%Li%NULL%0, Feng%Li%NULL%0, Qingnian%Xu%NULL%0, Yuyi%Zhang%NULL%0, Shuibao%Xu%NULL%0, Zhigang%Song%NULL%0, Yigang%Zeng%NULL%0, Yinzhong%Shen%NULL%0, Yuxin%Shi%NULL%0, Tongyu%Zhu%NULL%0, Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%0, Xuan%Dong%NULL%0, Jieming%Qu%NULL%0, Fengyun%Gong%NULL%0, Yang%Han%NULL%0, Yang%Qiu%NULL%0, Jingli%Wang%NULL%0, Ying%Liu%NULL%0, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%0, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%0, Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%0, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Wen-hua%Liang%NULL%0, Chun-quan%Ou%NULL%0, Jian-xing%He%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, David S.C.%Hui%NULL%0, Bin%Du%NULL%0, Lan-juan%Li%NULL%0, Guang%Zeng%NULL%0, Kwok-Yung%Yuen%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%0, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%0, Jin-lin%Wang%NULL%0, Zi-jing%Liang%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0, Yuanyuan%Xing%NULL%0, Yu%Xiao%NULL%0, Liping%Deng%NULL%0, Qiu%Zhao%NULL%0, Hongling%Wang%NULL%0, Yong%Xiong%NULL%0, Zhenshun%Cheng%NULL%0, Shicheng%Gao%NULL%0, Ke%Liang%NULL%0, Mingqi%Luo%NULL%0, Tielong%Chen%NULL%0, Shihui%Song%NULL%0, Zhiyong%Ma%NULL%0, Xiaoping%Chen%NULL%0, Ruiying%Zheng%NULL%0, Qian%Cao%NULL%0, Fan%Wang%fanndywang@foxmail.com%0, Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0, N -B%Yang%NULL%0, F%Ding%NULL%0, A H Y%Ma%NULL%0, Z -Y%Wang%NULL%0, Y -F%Shen%NULL%0, C -W%Shi%NULL%0, X%Lian%NULL%0, J -G%Chu%NULL%0, L%Chen%chxmin@hotmail.com%0, Z -Y%Wang%NULL%0, D -W%Ren%NULL%0, G -X%Li%NULL%0, X -Q%Chen%chxmin@hotmail.com%0, H -J%Shen%NULL%0, X -M%Chen%chxmin@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%0, Hugues%Spillemaeker%NULL%1, Maéva%Kyheng%NULL%1, Cassandre%Belin‐Vincent%NULL%1, Cédric%Delhaye%NULL%1, Adeline%Piérache%NULL%1, Tom%Denimal%NULL%1, Basile%Verdier%NULL%1, Nicolas%Debry%NULL%1, Mouhamed%Moussa%NULL%1, Guillaume%Schurtz%NULL%1, Sina%Porouchani%NULL%1, Alessandro%Cosenza%NULL%1, Francis%Juthier%NULL%1, Thibault%Pamart%NULL%1, Marjorie%Richardson%NULL%1, Augustin%Coisne%NULL%1, Adrien%Hertault%NULL%1, Jonathan%Sobocinski%NULL%1, Thomas%Modine%NULL%1, François%Pontana%NULL%1, Alain%Duhamel%NULL%0, Julien%Labreuche%NULL%0, Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%0, Yimei%Yin%18256985@qq.com%1, Chang%Hu%1391369733@qq.com%0, Xing%Liu%375117565@qq.com%1, Xingguo%Zhang%zhangxinguo7909@163.com%1, Shuliang%Zhou%350925556@qq.com%1, Mingzhi%Jian%Jmzhak@aliyun.com%1, Haibo%Xu%xuhaibo1120@hotmail.com%0, John%Prowle%j.prowle@qmul.ac.uk%1, Bo%Hu%hobbier1979@163.com%0, Yirong%Li%liyirong838@163.com%0, Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0, Xiao-Xin%Wu%NULL%0, Xian-Gao%Jiang%NULL%0, Kai-Jin%Xu%NULL%0, Ling-Jun%Ying%NULL%0, Chun-Lian%Ma%NULL%0, Shi-Bo%Li%NULL%0, Hua-Ying%Wang%NULL%0, Sheng%Zhang%NULL%0, Hai-Nv%Gao%NULL%0, Ji-Fang%Sheng%NULL%0, Hong-Liu%Cai%NULL%0, Yun-Qing%Qiu%NULL%0, Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0, Chang%Hu%NULL%0, Linjie%Luo%NULL%0, Fang%Fang%NULL%0, Yongfeng%Chen%NULL%0, Jianguo%Li%NULL%0, Zhiyong%Peng%NULL%0, Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since December 2019, COVID-19 has occurred unexpectedly and emerged as a health problem worldwide.
+ Despite the rapidly increasing number of cases in subsequent weeks, the clinical characteristics of pediatric cases are rarely described.
+ A cross-sectional multicenter study was carried out in 10 hospitals across Hubei province.
+ A total of 25 confirmed pediatric cases of COVID-19 were collected.
+ The demographic data, epidemiological history, underlying diseases, clinical manifestations, laboratory and radiological data, treatments, and outcomes were analyzed.
+ Of 25 hospitalized patients with COVID-19, the boy to girl ratio was 1.27:1. The median age was 3 years.
+ COVID-19 cases in children aged &amp;lt;3 years, 3.6 years, and ≥6-years patients were 10 (40%), 6 (24%), and 9 (36%), respectively.
+ The most common symptoms at onset of illness were fever (13 [52%]), and dry cough (11 [44%]).
+ Chest CT images showed essential normal in 8 cases (33.3%), unilateral involvement of lungs in 5 cases (20.8%), and bilateral involvement in 11 cases (45.8%).
+ Clinical diagnoses included upper respiratory tract infection (n=8), mild pneumonia (n=15), and critical cases (n=2).
+ Two critical cases (8%) were given invasive mechanical ventilation, corticosteroids, and immunoglobulin.
+ The symptoms in 24 (96%) of 25 patients were alleviated and one patient had been discharged.
+ It was concluded that children were susceptible to COVID-19 like adults, while the clinical presentations and outcomes were more favorable in children.
+ However, children less than 3 years old accounted for majority cases and critical cases lied in this age group, which demanded extra attentions during home caring and hospitalization treatment.
+</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%0, Chun%Liao%lc7spring@163.com%1, Qi-hong%Fan%1187286305@qq.com%1, Hong-bo%Chen%hbchen@hust.edu.cn%1, Xue-gong%Zhao%NULL%1, Zhong-guo%Xie%NULL%1, Xi-lin%Li%NULL%1, Chun-xi%Chen%NULL%1, Xiao-xia%Lu%NULL%1, Zhi-sheng%Liu%NULL%1, Wei%Lu%NULL%1, Chun-bao%Chen%NULL%1, Rong%Jiao%NULL%1, Ai-ming%Zhang%NULL%1, Jin-tang%Wang%NULL%1, Xi-wei%Ding%NULL%1, Yao-guang%Zeng%NULL%1, Li-ping%Cheng%NULL%1, Qing-feng%Huang%NULL%1, Jiang%Wu%NULL%0, Xi-chang%Luo%NULL%1, Zhu-jun%Wang%NULL%1, Yan-yan%Zhong%NULL%1, Yan%Bai%yanbaixh@hust.edu.cn%1, Xiao-yan%Wu%xwu@hust.edu.cn%1, Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>Huazhong University of Science and Technology</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0, Mengqi%Tu%NULL%0, Shipei%Wang%NULL%0, Sichao%Chen%NULL%0, Wei%Zhou%NULL%0, Danyang%Chen%NULL%0, Lin%Zhou%NULL%0, Min%Wang%NULL%0, Yan%Zhao%NULL%0, Wen%Zeng%NULL%0, Qi%Huang%NULL%0, Hai'bo%Xu%NULL%0, Zeming%Liu%NULL%0, Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0, Wei-jie%Guan%NULL%0, Cai-chen%Li%NULL%0, Yi-min%Li%NULL%0, Heng-rui%Liang%NULL%0, Yi%Zhao%NULL%0, Xiao-qing%Liu%NULL%0, Ling%Sang%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Wei%Wang%NULL%0, Qi-hua%He%NULL%2, Zi-sheng%Chen%NULL%0, Sook-San%Wong%NULL%2, Mark%Zanin%NULL%2, Jun%Liu%NULL%0, Xin%Xu%NULL%0, Jun%Huang%NULL%2, Jian-fu%Li%NULL%0, Li-min%Ou%NULL%0, Bo%Cheng%NULL%0, Shan%Xiong%NULL%0, Zhan-hong%Xie%NULL%2, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Lin-ling%Cheng%NULL%0, Feng%Ye%NULL%0, Shi-yue%Li%NULL%0, Jin-ping%Zheng%NULL%0, Nuo-fu%Zhang%NULL%0, Nan-shan%Zhong%NULL%0, Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>European Respiratory Society</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0, Simon A%Jones%NULL%0, Jie%Yang%NULL%0, Harish%Rajagopalan%NULL%0, Luke%O’Donnell%NULL%0, Yelena%Chernyak%NULL%0, Katie A%Tobin%NULL%0, Robert J%Cerfolio%NULL%0, Fritz%Francois%NULL%0, Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, Stephanie%Bialek%NULL%0, Ellen%Boundy%NULL%0, Virginia%Bowen%NULL%0, Nancy%Chow%NULL%0, Amanda%Cohn%NULL%0, Nicole%Dowling%NULL%0, Sascha%Ellington%NULL%0, Ryan%Gierke%NULL%0, Aron%Hall%NULL%0, Jessica%MacNeil%NULL%0, Priti%Patel%NULL%0, Georgina%Peacock%NULL%0, Tamara%Pilishvili%NULL%0, Hilda%Razzaghi%NULL%0, Nia%Reed%NULL%0, Matthew%Ritchey%NULL%0, Erin%Sauber-Schatz%NULL%0]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%0, Pedro%Póvoa%NULL%1, Vicente%Souza-Dantas%NULL%1, André C.%Kalil%NULL%1, Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>European Society of Clinical Microbiology and Infectious Diseases. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0, Graeme%MacLaren%NULL%2, Philip S%Boonstra%NULL%2, Theodore J%Iwashyna%NULL%2, Arthur S%Slutsky%NULL%2, Eddy%Fan%NULL%2, Robert H%Bartlett%NULL%2, Joseph E%Tonna%NULL%2, Robert%Hyslop%NULL%2, Jeffrey J%Fanning%NULL%2, Peter T%Rycus%NULL%2, Steve J%Hyer%NULL%2, Marc M%Anders%NULL%2, Cara L%Agerstrand%NULL%2, Katarzyna%Hryniewicz%NULL%2, Rodrigo%Diaz%NULL%2, Roberto%Lorusso%NULL%2, Alain%Combes%NULL%0, Daniel%Brodie%NULL%6, Peta%Alexander%NULL%2, Nicholas%Barrett%NULL%0, Jan%Bělohlávek%NULL%2, Dale%Fisher%NULL%2, John%Fraser%NULL%2, Ali Ait%Hssain%NULL%0, Jae Sung%Jung%NULL%2, Michael%McMullan%NULL%2, Yatin%Mehta%NULL%2, Mark T.%Ogino%NULL%2, Matthew L.%Paden%NULL%2, Kiran%Shekar%NULL%2, Christine%Stead%NULL%2, Yasir%Abu-Omar%NULL%2, Vanni%Agnoletti%NULL%2, Anzila%Akbar%NULL%2, Huda%Alfoudri%NULL%2, Carlos%Alviar%NULL%2, Vladimir%Aronsky%NULL%2, Erin%August%NULL%2, Georg%Auzinger%NULL%2, Hilda%Aveja%NULL%2, Rhonda%Bakken%NULL%2, Joan%Balcells%NULL%2, Sripal%Bangalore%NULL%0, Bernard W.%Barnes%NULL%2, Alaiza%Bautista%NULL%2, Lorraine L.%Bellows%NULL%2, Felipe%Beltran%NULL%2, Peyman%Benharash%NULL%2, Marco%Benni%NULL%2, Jennifer%Berg%NULL%2, Pietro%Bertini%NULL%2, Pablo%Blanco-Schweizer%NULL%2, Melissa%Brunsvold%NULL%2, Jenny%Budd%NULL%2, Debra%Camp%NULL%2, Mark%Caridi-Scheible%NULL%0, Edmund%Carton%NULL%2, Elena%Casanova-Ghosh%NULL%2, Anthony%Castleberry%NULL%2, Christopher T.%Chipongian%NULL%2, Chang Woo%Choi%NULL%2, Alessandro%Circelli%NULL%2, Elliott%Cohen%NULL%2, Michael%Collins%NULL%2, Scott%Copus%NULL%2, Jill%Coy%NULL%2, Brandon%Crist%NULL%2, Leonora%Cruz%NULL%2, Mirosław%Czuczwar%NULL%2, Mani%Daneshmand%NULL%2, Daniel%Davis II%NULL%2, Kim%De la Cruz%NULL%2, Cyndie%Devers%NULL%2, Toni%Duculan%NULL%2, Lucian%Durham%NULL%2, Subbarao%Elapavaluru%NULL%2, Carlos V.%Elzo Kraemer%NULL%2, EDMÍLSON CARDOSO%Filho%NULL%2, Jillian%Fitzgerald%NULL%2, Giuseppe%Foti%NULL%2, Matthew%Fox%NULL%2, David%Fritschen%NULL%2, David%Fullerton%NULL%2, Elton%Gelandt%NULL%2, Stacy%Gerle%NULL%2, Marco%Giani%NULL%2, Si Guim%Goh%NULL%2, Sara%Govener%NULL%2, Julie%Grone%NULL%2, Miles%Guber%NULL%2, Vadim%Gudzenko%NULL%2, Daniel%Gutteridge%NULL%2, Jennifer%Guy%NULL%2, Jonathan%Haft%NULL%2, Cameron%Hall%NULL%2, Ibrahim Fawzy%Hassan%NULL%2, Rubén%Herrán%NULL%2, Hitoshi%Hirose%NULL%3, Abdulsalam Saif%Ibrahim%NULL%2, Don%Igielski%NULL%2, Felicia A.%Ivascu%NULL%2, Jaume%Izquierdo Blasco%NULL%2, Julie%Jackson%NULL%2, Harsh%Jain%NULL%2, Bhavini%Jaiswal%NULL%2, Andrea C.%Johnson%NULL%2, Jenniver A.%Jurynec%NULL%2, Norma M%Kellter%NULL%2, Adam%Kohl%NULL%2, Zachary%Kon%NULL%2, Markus%Kredel%NULL%2, Karen%Kriska%NULL%2, Chandra%Kunavarapu%NULL%2, Oude%Lansink-Hartgring%NULL%2, Jeliene%LaRocque%NULL%2, Sharon Beth%Larson%NULL%2, Tracie%Layne%NULL%2, Stephane%Ledot%NULL%2, Napolitan%Lena%NULL%2, Jonathan%Lillie%NULL%2, Gösta%Lotz%NULL%2, Mark%Lucas%NULL%2, Lee%Ludwigson%NULL%2, Jacinta J.%Maas%NULL%2, Joanna%Maertens%NULL%2, David%Mast%NULL%2, Scott%McCardle%NULL%2, Bernard%McDonald%NULL%2, Allison%McLarty%NULL%2, Chelsea%McMahon%NULL%2, Patrick%Meybohm%NULL%2, Bart%Meyns%NULL%2, Casey%Miller%NULL%2, Fernando%Moraes Neto%NULL%2, Kelly%Morris%NULL%2, Ralf%Muellenbach%NULL%2, Meghan%Nicholson%NULL%2, Serena%O'Brien%NULL%2, Kathryn%O'Keefe%NULL%2, Tawnya%Ogston%NULL%2, Gary%Oldenburg%NULL%2, Fabiana M.%Oliveira%NULL%2, Emily%Oppel%NULL%2, Diego%Pardo%NULL%4, Diego%Pardo%NULL%0, Sara J.%Parker%NULL%2, Finn M.%Pedersen%NULL%2, Crescens%Pellecchia%NULL%2, Jose A.S.%Pelligrini%NULL%2, Thao T.N.%Pham%NULL%2, Ann R.%Phillips%NULL%2, Tasneem%Pirani%NULL%2, Paweł%Piwowarczyk%NULL%2, Robert%Plambeck%NULL%2, William%Pruett%NULL%2, Brittany%Quandt%NULL%2, Kollengode%Ramanathan%NULL%0, Alejandro%Rey%NULL%2, Christian%Reyher%NULL%2, Jordi%Riera del Brio%NULL%2, Rachel%Roberts%NULL%2, David%Roe%NULL%2, Peter P.%Roeleveld%NULL%2, Janet%Rudy%NULL%2, Luis F.%Rueda%NULL%2, Emanuele%Russo%NULL%2, Jesús%Sánchez Ballesteros%NULL%2, Nancy%Satou%NULL%2, Mauricio Guidi%Saueressig%NULL%2, Paul C.%Saunders%NULL%2, Margaret%Schlotterbeck%NULL%2, Patricia%Schwarz%NULL%2, Nicole%Scriven%NULL%2, Alexis%Serra%NULL%2, Mohammad%Shamsah%NULL%2, Lucy%Sim%NULL%2, Alexandra%Smart%NULL%2, Adam%Smith%NULL%2, Deane%Smith%NULL%2, Maggie%Smith%NULL%2, Neel%Sodha%NULL%2, Michael%Sonntagbauer%NULL%2, Marc%Sorenson%NULL%2, Eric B%Stallkamp%NULL%2, Allison%Stewart%NULL%2, Kathy%Swartz%NULL%2, Koji%Takeda%NULL%2, Shaun%Thompson%NULL%2, Bridget%Toy%NULL%2, Divina%Tuazon%NULL%2, Makoto%Uchiyama%NULL%2, Obiora I.%Udeozo%NULL%2, Scott%van Poppel%NULL%2, Corey%Ventetuolo%NULL%2, Leen%Vercaemst%NULL%2, Nguyen V.%Vinh Chau%NULL%2, I-Wen%Wang%NULL%2, Carrie%Williamson%NULL%2, Brock%Wilson%NULL%2, Helen%Winkels%NULL%2]</t>
   </si>
 </sst>
 </file>
@@ -3237,28 +3537,28 @@
         <v>43903</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>437</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>638</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
         <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>639</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3275,7 +3575,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>792</v>
+        <v>863</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -3287,10 +3587,10 @@
         <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3301,25 +3601,25 @@
         <v>43949</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>793</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>578</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
         <v>103</v>
@@ -3339,7 +3639,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>794</v>
+        <v>865</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -3351,10 +3651,10 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>583</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3368,10 +3668,10 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>867</v>
       </c>
       <c r="E6" t="s">
-        <v>795</v>
+        <v>868</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -3383,10 +3683,10 @@
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>864</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3397,28 +3697,28 @@
         <v>43949</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>442</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>638</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
         <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>639</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3429,28 +3729,28 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>869</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>870</v>
       </c>
       <c r="E8" t="s">
-        <v>796</v>
+        <v>871</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>872</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3467,7 +3767,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>797</v>
+        <v>874</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -3479,10 +3779,10 @@
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3496,10 +3796,10 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>876</v>
       </c>
       <c r="E10" t="s">
-        <v>798</v>
+        <v>877</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -3511,10 +3811,10 @@
         <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>583</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>878</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3531,7 +3831,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>799</v>
+        <v>879</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -3543,10 +3843,10 @@
         <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>583</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>866</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3563,7 +3863,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -3575,10 +3875,10 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3595,7 +3895,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>801</v>
+        <v>881</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -3607,10 +3907,10 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3627,7 +3927,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>802</v>
+        <v>883</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -3639,10 +3939,10 @@
         <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3659,7 +3959,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>803</v>
+        <v>884</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -3671,10 +3971,10 @@
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3685,25 +3985,25 @@
         <v>43868</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>804</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
         <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>578</v>
+        <v>103</v>
       </c>
       <c r="J16" t="s">
         <v>103</v>
@@ -3720,10 +4020,10 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>395</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>805</v>
+        <v>885</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -3735,10 +4035,10 @@
         <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>596</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>886</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3749,28 +4049,28 @@
         <v>43908</v>
       </c>
       <c r="C18" t="s">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>453</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
         <v>103</v>
       </c>
       <c r="J18" t="s">
-        <v>655</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3787,7 +4087,7 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>806</v>
+        <v>887</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -3799,10 +4099,10 @@
         <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>888</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3819,7 +4119,7 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>807</v>
+        <v>889</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -3831,10 +4131,10 @@
         <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>583</v>
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>890</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3848,10 +4148,10 @@
         <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>891</v>
       </c>
       <c r="E21" t="s">
-        <v>808</v>
+        <v>892</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -3863,10 +4163,10 @@
         <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>596</v>
+        <v>103</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>893</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3883,7 +4183,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>809</v>
+        <v>894</v>
       </c>
       <c r="F22" t="s">
         <v>101</v>
@@ -3895,10 +4195,10 @@
         <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>583</v>
+        <v>103</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>866</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3915,7 +4215,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>810</v>
+        <v>895</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
@@ -3927,10 +4227,10 @@
         <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>583</v>
+        <v>103</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>866</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3947,7 +4247,7 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>811</v>
+        <v>896</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -3959,10 +4259,10 @@
         <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>583</v>
+        <v>103</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>866</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3979,7 +4279,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>812</v>
+        <v>897</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -3991,10 +4291,10 @@
         <v>112</v>
       </c>
       <c r="I25" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>898</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -4011,7 +4311,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>813</v>
+        <v>899</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -4023,10 +4323,10 @@
         <v>116</v>
       </c>
       <c r="I26" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>888</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -4043,7 +4343,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>814</v>
+        <v>900</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -4055,10 +4355,10 @@
         <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>901</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -4075,7 +4375,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>815</v>
+        <v>902</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -4087,10 +4387,10 @@
         <v>122</v>
       </c>
       <c r="I28" t="s">
-        <v>583</v>
+        <v>103</v>
       </c>
       <c r="J28" t="s">
-        <v>103</v>
+        <v>903</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -4107,7 +4407,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>816</v>
+        <v>904</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>
@@ -4119,10 +4419,10 @@
         <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>583</v>
+        <v>103</v>
       </c>
       <c r="J29" t="s">
-        <v>103</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
